--- a/fichiers_xls/gathertests/divided_test_cmd_ongletbyparticipant_before.xlsx
+++ b/fichiers_xls/gathertests/divided_test_cmd_ongletbyparticipant_before.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="22300896" sheetId="1" state="visible" r:id="rId3"/>
@@ -140,7 +140,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -150,6 +150,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -388,15 +392,16 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E1048576"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
+      <selection pane="topLeft" activeCell="F1" activeCellId="0" sqref="F1 G2:K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.55078125" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="21.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16384" min="16384" style="0" width="11.53"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -412,7 +417,7 @@
       <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
     </row>
@@ -429,7 +434,7 @@
       <c r="D2" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="E2" s="2" t="n">
+      <c r="E2" s="0" t="n">
         <v>1</v>
       </c>
     </row>
@@ -446,7 +451,7 @@
       <c r="D3" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="E3" s="2" t="n">
+      <c r="E3" s="0" t="n">
         <v>1</v>
       </c>
     </row>
@@ -463,7 +468,7 @@
       <c r="D4" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="E4" s="2" t="n">
+      <c r="E4" s="0" t="n">
         <v>1</v>
       </c>
     </row>
@@ -480,7 +485,7 @@
       <c r="D5" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="E5" s="2" t="n">
+      <c r="E5" s="0" t="n">
         <v>1</v>
       </c>
     </row>
@@ -497,7 +502,7 @@
       <c r="D6" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="E6" s="2" t="n">
+      <c r="E6" s="0" t="n">
         <v>1</v>
       </c>
     </row>
@@ -514,45 +519,10 @@
       <c r="D7" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="E7" s="2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+      <c r="E7" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="A8:A1048576 A1:A5">
     <cfRule type="cellIs" priority="2" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
@@ -590,15 +560,16 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E1048576"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
+      <selection pane="topLeft" activeCell="F1" activeCellId="0" sqref="F1 G2:K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.55078125" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="21.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16384" min="16384" style="0" width="11.53"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -614,7 +585,7 @@
       <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
     </row>
@@ -631,7 +602,7 @@
       <c r="D2" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="E2" s="2" t="n">
+      <c r="E2" s="0" t="n">
         <v>1</v>
       </c>
     </row>
@@ -648,7 +619,7 @@
       <c r="D3" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="E3" s="2" t="n">
+      <c r="E3" s="0" t="n">
         <v>1</v>
       </c>
     </row>
@@ -665,7 +636,7 @@
       <c r="D4" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="E4" s="2" t="n">
+      <c r="E4" s="0" t="n">
         <v>1</v>
       </c>
     </row>
@@ -682,60 +653,10 @@
       <c r="D5" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="E5" s="2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048570" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048571" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+      <c r="E5" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="A6:A1048576 A1:A3">
     <cfRule type="cellIs" priority="2" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
@@ -771,13 +692,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F1" activeCellId="0" sqref="F1 G2:K7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
@@ -812,7 +733,6 @@
       <c r="E2" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="F2" s="1"/>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="n">
@@ -866,7 +786,7 @@
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="3" t="n">
+      <c r="A6" s="4" t="n">
         <v>22302237</v>
       </c>
       <c r="B6" s="2" t="n">
@@ -883,7 +803,7 @@
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="3" t="n">
+      <c r="A7" s="4" t="n">
         <v>22302237</v>
       </c>
       <c r="B7" s="2" t="n">
@@ -944,11 +864,11 @@
   </sheetPr>
   <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G7" activeCellId="1" sqref="F1 G2:K7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -963,12 +883,12 @@
       <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="4" t="n">
+      <c r="A2" s="5" t="n">
         <v>22300895</v>
       </c>
       <c r="B2" s="2" t="n">
@@ -980,12 +900,12 @@
       <c r="D2" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="E2" s="2" t="n">
+      <c r="E2" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="4" t="n">
+      <c r="A3" s="5" t="n">
         <v>22300895</v>
       </c>
       <c r="B3" s="2" t="n">
@@ -997,7 +917,7 @@
       <c r="D3" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="E3" s="2" t="n">
+      <c r="E3" s="0" t="n">
         <v>1</v>
       </c>
     </row>
